--- a/excel-wafflechart-demo.xlsx
+++ b/excel-wafflechart-demo.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28210"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18F7038D-83A9-4D70-B337-33C53BFD8398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EB181D-710D-4EDA-B0C8-AF7C00F6C0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{82CC8FF4-E806-4747-8052-BD5457E82C36}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{82CC8FF4-E806-4747-8052-BD5457E82C36}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="example-1" sheetId="1" r:id="rId1"/>
+    <sheet name="example-2" sheetId="3" r:id="rId2"/>
+    <sheet name="example-3" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="brands">market_share[Brand]</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +40,109 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>import matplotlib.colors as mcolors
+df = xl(%P2%, headers=True)
+# Set waffle grid
+total_squares = 100
+rows, cols = 10, 10
+# Calculate the number of squares per category and ensure total equals 100
+category_proportions = df['Market Share (%%)'] / df['Market Share (%%)'].sum()
+num_squares_per_category = (category_proportions * total_squares).round().astype(int)
+num_squares_per_category.iloc[0] += total_squares - num_squares_per_category.sum()  # Adjust first category if rounding causes discrepancy
+# Generate shades of blue palette dynamically
+colors = plt.cm.Blues(np.linspace(0.4, 1.2, len(df['Brand'])))
+# Create the waffle chart grid and fill it with category indices
+waffle_chart = np.zeros((rows, cols))
+category_index = 0
+for category, num_squares in enumerate(num_squares_per_category):
+    if category_index + num_squares &gt; total_squares:  # Prevent out-of-bounds error
+        num_squares = total_squares - category_index
+    waffle_chart.flat[category_index:category_index + num_squares] = category
+    category_index += num_squares
+# Set up the figure and axes
+fig, ax = plt.subplots(figsize=(6, 6))
+ax.matshow(waffle_chart, cmap=mcolors.ListedColormap(colors), alpha=0.6)
+# Add white gridlines for the waffle chart
+ax.set_xticks(np.arange(-0.5, cols, 1), minor=True)
+ax.set_yticks(np.arange(-0.5, rows, 1), minor=True)
+ax.grid(which="minor", color="white", linestyle='-', linewidth=2)
+# Remove ticks and labels from the axes
+ax.tick_params(which="both", bottom=False, left=False, labelbottom=False, labelleft=False)
+ax.set_xticks([])
+# Define dynamic label positions based on the number of categories
+y_positions = np.linspace(1, rows - 1, len(df['Brand']))
+# Add percentage labels with company names inside each section
+for brand, percentage, color, y_pos in zip(df['Brand'], df['Market Share (%%)'], colors, y_positions):
+    ax.text((cols / 2) + 1, y_pos, f"{brand}: {percentage}%%", 
+            va='center', ha='left', color=color, fontsize=12, weight='bold', bbox=dict(facecolor='white', edgecolor='none'))
+# Set title and adjust spacing
+plt.title("Global Smartphone Market Share - Q3 2024", fontsize=16)
+plt.subplots_adjust(top=0.85)
+# Display the plot
+plt.show()</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>Brand</t>
   </si>
@@ -55,14 +161,36 @@
   <si>
     <t>Other</t>
   </si>
+  <si>
+    <t>Choose brand:</t>
+  </si>
+  <si>
+    <t>Market share</t>
+  </si>
+  <si>
+    <t>Cumulative total</t>
+  </si>
+  <si>
+    <t>Global Smartphone Market Share - Q3 2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode=";;"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="26"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -77,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -85,17 +213,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -108,12 +323,343 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>427243</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>427154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>554181</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E71D34-460B-DF69-FA37-D487EEDB2522}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10644970" y="5622609"/>
+          <a:ext cx="2447575" cy="4379594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Apple:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 40%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr lang="en-US" sz="2000" b="1" kern="1200" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr lang="en-US" sz="2000" b="1" kern="1200" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Samsung: 35%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr lang="en-US" sz="2000" b="1" kern="1200" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr lang="en-US" sz="2000" b="1" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr lang="en-US" sz="2000" b="1" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Xiaomi:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 15%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:br>
+            <a:rPr lang="en-US" sz="2000" b="1" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>   Other: 10%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>351204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>681185</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D250E4F-49C5-2424-A442-A2E194750D97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'example-3'!D2"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4645207" y="351204"/>
+          <a:ext cx="6998436" cy="5527082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46F4364D-8AC9-4CA8-B281-C097569431EC}" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46F4364D-8AC9-4CA8-B281-C097569431EC}" name="market_share" displayName="market_share" ref="A1:B5" totalsRowShown="0">
   <autoFilter ref="A1:B5" xr:uid="{46F4364D-8AC9-4CA8-B281-C097569431EC}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F5D3EE04-D3ED-4B2A-B44A-B4128193B03F}" name="Brand"/>
     <tableColumn id="2" xr3:uid="{AD630225-2413-49FD-85C1-EA7FE39F69A5}" name="Market Share (%)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4A0C5F88-C259-46B4-9AFB-CCBE1D63E172}" name="market_share4" displayName="market_share4" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{4A0C5F88-C259-46B4-9AFB-CCBE1D63E172}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2D697679-3732-40BC-8DAE-CE224708E7B7}" name="Brand"/>
+    <tableColumn id="2" xr3:uid="{A5F9AEBE-376D-4CC9-A171-BFAEFBB909F5}" name="Market Share (%)"/>
+    <tableColumn id="3" xr3:uid="{37D3FDDB-4531-4CAC-90FF-5B98D1D75CE0}" name="Cumulative total" dataDxfId="2">
+      <calculatedColumnFormula>SUM(INDEX(market_share4[Market Share (%)], 1):market_share4[[#This Row],[Market Share (%)]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{52509212-1A35-4D03-B334-71C8A2282F03}" name="market_share3" displayName="market_share3" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{52509212-1A35-4D03-B334-71C8A2282F03}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{07C2E5D7-CFCE-41DA-A1FD-CCE385C8F58B}" name="Brand"/>
+    <tableColumn id="2" xr3:uid="{CFB378DF-2E8F-439E-AF4C-12962830036B}" name="Market Share (%)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -436,26 +982,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AE2EE6-8974-49F4-A52B-9187C92B921E}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
   <cols>
-    <col min="2" max="2" width="11.6796875" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="4.33984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="1.3">
+    <row r="1" spans="1:17" ht="46.8" x14ac:dyDescent="1.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="D1" s="6" t="str">
+        <f>_xlfn.CONCAT(B8, " has ", B9, "% market share")</f>
+        <v>Apple has 40% market share</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="1.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -463,34 +1015,1192 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="1.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="1.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="D3" s="5" cm="1">
+        <f t="array" ref="D3:M12">_xlfn.SEQUENCE(10, 10)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5">
+        <v>7</v>
+      </c>
+      <c r="K3" s="5">
+        <v>8</v>
+      </c>
+      <c r="L3" s="5">
+        <v>9</v>
+      </c>
+      <c r="M3" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="1.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="D4" s="5">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5">
+        <v>16</v>
+      </c>
+      <c r="J4" s="5">
+        <v>17</v>
+      </c>
+      <c r="K4" s="5">
+        <v>18</v>
+      </c>
+      <c r="L4" s="5">
+        <v>19</v>
+      </c>
+      <c r="M4" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="1.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
+      <c r="D5" s="5">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5">
+        <v>24</v>
+      </c>
+      <c r="H5" s="5">
+        <v>25</v>
+      </c>
+      <c r="I5" s="5">
+        <v>26</v>
+      </c>
+      <c r="J5" s="5">
+        <v>27</v>
+      </c>
+      <c r="K5" s="5">
+        <v>28</v>
+      </c>
+      <c r="L5" s="5">
+        <v>29</v>
+      </c>
+      <c r="M5" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="1.3">
+      <c r="D6" s="5">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5">
+        <v>34</v>
+      </c>
+      <c r="H6" s="5">
+        <v>35</v>
+      </c>
+      <c r="I6" s="5">
+        <v>36</v>
+      </c>
+      <c r="J6" s="5">
+        <v>37</v>
+      </c>
+      <c r="K6" s="5">
+        <v>38</v>
+      </c>
+      <c r="L6" s="5">
+        <v>39</v>
+      </c>
+      <c r="M6" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="1.3">
+      <c r="D7" s="5">
+        <v>41</v>
+      </c>
+      <c r="E7" s="5">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43</v>
+      </c>
+      <c r="G7" s="5">
+        <v>44</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45</v>
+      </c>
+      <c r="I7" s="5">
+        <v>46</v>
+      </c>
+      <c r="J7" s="5">
+        <v>47</v>
+      </c>
+      <c r="K7" s="5">
+        <v>48</v>
+      </c>
+      <c r="L7" s="5">
+        <v>49</v>
+      </c>
+      <c r="M7" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="1.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>51</v>
+      </c>
+      <c r="E8" s="5">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5">
+        <v>53</v>
+      </c>
+      <c r="G8" s="5">
+        <v>54</v>
+      </c>
+      <c r="H8" s="5">
+        <v>55</v>
+      </c>
+      <c r="I8" s="5">
+        <v>56</v>
+      </c>
+      <c r="J8" s="5">
+        <v>57</v>
+      </c>
+      <c r="K8" s="5">
+        <v>58</v>
+      </c>
+      <c r="L8" s="5">
+        <v>59</v>
+      </c>
+      <c r="M8" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="1.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f>_xlfn.XLOOKUP(B8, market_share[Brand], market_share[Market Share (%)])</f>
+        <v>40</v>
+      </c>
+      <c r="D9" s="5">
+        <v>61</v>
+      </c>
+      <c r="E9" s="5">
+        <v>62</v>
+      </c>
+      <c r="F9" s="5">
+        <v>63</v>
+      </c>
+      <c r="G9" s="5">
+        <v>64</v>
+      </c>
+      <c r="H9" s="5">
+        <v>65</v>
+      </c>
+      <c r="I9" s="5">
+        <v>66</v>
+      </c>
+      <c r="J9" s="5">
+        <v>67</v>
+      </c>
+      <c r="K9" s="5">
+        <v>68</v>
+      </c>
+      <c r="L9" s="5">
+        <v>69</v>
+      </c>
+      <c r="M9" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="1.3">
+      <c r="D10" s="5">
+        <v>71</v>
+      </c>
+      <c r="E10" s="5">
+        <v>72</v>
+      </c>
+      <c r="F10" s="5">
+        <v>73</v>
+      </c>
+      <c r="G10" s="5">
+        <v>74</v>
+      </c>
+      <c r="H10" s="5">
+        <v>75</v>
+      </c>
+      <c r="I10" s="5">
+        <v>76</v>
+      </c>
+      <c r="J10" s="5">
+        <v>77</v>
+      </c>
+      <c r="K10" s="5">
+        <v>78</v>
+      </c>
+      <c r="L10" s="5">
+        <v>79</v>
+      </c>
+      <c r="M10" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="1.3">
+      <c r="D11" s="5">
+        <v>81</v>
+      </c>
+      <c r="E11" s="5">
+        <v>82</v>
+      </c>
+      <c r="F11" s="5">
+        <v>83</v>
+      </c>
+      <c r="G11" s="5">
+        <v>84</v>
+      </c>
+      <c r="H11" s="5">
+        <v>85</v>
+      </c>
+      <c r="I11" s="5">
+        <v>86</v>
+      </c>
+      <c r="J11" s="5">
+        <v>87</v>
+      </c>
+      <c r="K11" s="5">
+        <v>88</v>
+      </c>
+      <c r="L11" s="5">
+        <v>89</v>
+      </c>
+      <c r="M11" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="1.3">
+      <c r="D12" s="5">
+        <v>91</v>
+      </c>
+      <c r="E12" s="5">
+        <v>92</v>
+      </c>
+      <c r="F12" s="5">
+        <v>93</v>
+      </c>
+      <c r="G12" s="5">
+        <v>94</v>
+      </c>
+      <c r="H12" s="5">
+        <v>95</v>
+      </c>
+      <c r="I12" s="5">
+        <v>96</v>
+      </c>
+      <c r="J12" s="5">
+        <v>97</v>
+      </c>
+      <c r="K12" s="5">
+        <v>98</v>
+      </c>
+      <c r="L12" s="5">
+        <v>99</v>
+      </c>
+      <c r="M12" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="1.3">
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="1.3">
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="1.3">
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="1.3">
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="1.3">
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="1.3">
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="17:17" x14ac:dyDescent="1.3">
+      <c r="Q19" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D3:M12">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+      <formula>$B$9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{6B84D970-CFE9-4F0F-BDE4-951A54E07D21}">
+      <formula1>brands</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9EC7C9-2974-4FB4-83E8-1346EA192415}">
+  <dimension ref="A1:AE14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.4296875" defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
+  <cols>
+    <col min="1" max="1" width="7.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="3.4296875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="46.8" x14ac:dyDescent="1.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="4" cm="1">
+        <f t="array" ref="V1:AE10">_xlfn.SEQUENCE(10, 10)</f>
+        <v>1</v>
+      </c>
+      <c r="W1" s="4">
+        <v>2</v>
+      </c>
+      <c r="X1" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <f>SUM(INDEX(market_share4[Market Share (%)], 1):market_share4[[#This Row],[Market Share (%)]])</f>
+        <v>40</v>
+      </c>
+      <c r="V2" s="4">
+        <v>11</v>
+      </c>
+      <c r="W2" s="4">
+        <v>12</v>
+      </c>
+      <c r="X2" s="4">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>19</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <f>SUM(INDEX(market_share4[Market Share (%)], 1):market_share4[[#This Row],[Market Share (%)]])</f>
+        <v>75</v>
+      </c>
+      <c r="E3" s="7" cm="1">
+        <f t="array" ref="E3:N12">_xlfn.IFS(_xlfn.ANCHORARRAY(V1) &lt;= C2, 1,_xlfn.ANCHORARRAY(
+V1) &lt;= C3, 2,_xlfn.ANCHORARRAY(
+V1) &lt;= C4, 3,_xlfn.ANCHORARRAY(
+V1) &lt;= C5, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4">
+        <v>21</v>
+      </c>
+      <c r="W3" s="4">
+        <v>22</v>
+      </c>
+      <c r="X3" s="4">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <f>SUM(INDEX(market_share4[Market Share (%)], 1):market_share4[[#This Row],[Market Share (%)]])</f>
+        <v>90</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="V4" s="4">
+        <v>31</v>
+      </c>
+      <c r="W4" s="4">
+        <v>32</v>
+      </c>
+      <c r="X4" s="4">
+        <v>33</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>34</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>35</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>36</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>37</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>38</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>39</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <f>SUM(INDEX(market_share4[Market Share (%)], 1):market_share4[[#This Row],[Market Share (%)]])</f>
+        <v>100</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="V5" s="4">
+        <v>41</v>
+      </c>
+      <c r="W5" s="4">
+        <v>42</v>
+      </c>
+      <c r="X5" s="4">
+        <v>43</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>44</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>45</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>47</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>48</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>49</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4">
+        <v>51</v>
+      </c>
+      <c r="W6" s="4">
+        <v>52</v>
+      </c>
+      <c r="X6" s="4">
+        <v>53</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>54</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>55</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>56</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>57</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>58</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>59</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="7">
+        <v>2</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2</v>
+      </c>
+      <c r="V7" s="4">
+        <v>61</v>
+      </c>
+      <c r="W7" s="4">
+        <v>62</v>
+      </c>
+      <c r="X7" s="4">
+        <v>63</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>64</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>65</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>66</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>67</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>68</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>69</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>2</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2</v>
+      </c>
+      <c r="V8" s="4">
+        <v>71</v>
+      </c>
+      <c r="W8" s="4">
+        <v>72</v>
+      </c>
+      <c r="X8" s="4">
+        <v>73</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>74</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>75</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>76</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>77</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>78</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>79</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>2</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>2</v>
+      </c>
+      <c r="V9" s="4">
+        <v>81</v>
+      </c>
+      <c r="W9" s="4">
+        <v>82</v>
+      </c>
+      <c r="X9" s="4">
+        <v>83</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>84</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>85</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>86</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>87</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>88</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>89</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3</v>
+      </c>
+      <c r="K10" s="7">
+        <v>3</v>
+      </c>
+      <c r="L10" s="7">
+        <v>3</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3</v>
+      </c>
+      <c r="V10" s="4">
+        <v>91</v>
+      </c>
+      <c r="W10" s="4">
+        <v>92</v>
+      </c>
+      <c r="X10" s="4">
+        <v>93</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>94</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>95</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>96</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>97</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>98</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>99</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7">
+        <v>3</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3</v>
+      </c>
+      <c r="J11" s="7">
+        <v>3</v>
+      </c>
+      <c r="K11" s="7">
+        <v>3</v>
+      </c>
+      <c r="L11" s="7">
+        <v>3</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="E12" s="7">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
+      <c r="G12" s="7">
+        <v>4</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4</v>
+      </c>
+      <c r="J12" s="7">
+        <v>4</v>
+      </c>
+      <c r="K12" s="7">
+        <v>4</v>
+      </c>
+      <c r="L12" s="7">
+        <v>4</v>
+      </c>
+      <c r="M12" s="7">
+        <v>4</v>
+      </c>
+      <c r="N12" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="1.3"/>
+  </sheetData>
+  <conditionalFormatting sqref="E3:N12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.749992370372631"/>
+        <color theme="3" tint="9.9978637043366805E-2"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139BFFE0-2322-4B8E-A252-E24B89CE91AC}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.3828125" defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
+  <cols>
+    <col min="1" max="1" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="1.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="1.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="D2" t="e" cm="1" vm="1">
+        <f t="array" ref="D2">_xlfn._xlws.PY(0,0,market_share3[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="1.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="1.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="1.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/excel-wafflechart-demo.xlsx
+++ b/excel-wafflechart-demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EB181D-710D-4EDA-B0C8-AF7C00F6C0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99094450-C733-4F36-A276-16F0651CA7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{82CC8FF4-E806-4747-8052-BD5457E82C36}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{82CC8FF4-E806-4747-8052-BD5457E82C36}"/>
   </bookViews>
   <sheets>
     <sheet name="example-1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -127,10 +127,12 @@
 ax.set_xticks([])
 # Define dynamic label positions based on the number of categories
 y_positions = np.linspace(1, rows - 1, len(df['Brand']))
-# Add percentage labels with company names inside each section
-for brand, percentage, color, y_pos in zip(df['Brand'], df['Market Share (%%)'], colors, y_positions):
-    ax.text((cols / 2) + 1, y_pos, f"{brand}: {percentage}%%", 
-            va='center', ha='left', color=color, fontsize=12, weight='bold', bbox=dict(facecolor='white', edgecolor='none'))
+# Add percentage labels with dynamically calculated percentages
+for brand, proportion, color, y_pos in zip(df['Brand'], category_proportions, colors, y_positions):
+    percentage_label = f"{proportion * 100:.1f}%%"
+    ax.text((cols / 2) + 1, y_pos, f"{brand}: {percentage_label}", 
+            va='center', ha='left', color=color, fontsize=12, weight='bold', 
+            bbox=dict(facecolor='white', edgecolor='none'))
 # Set title and adjust spacing
 plt.title("Global Smartphone Market Share - Q3 2024", fontsize=16)
 plt.subplots_adjust(top=0.85)
@@ -178,8 +180,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode=";;"/>
+    <numFmt numFmtId="165" formatCode=";;;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -205,22 +208,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -278,16 +270,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,15 +507,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>746760</xdr:colOff>
+      <xdr:colOff>802323</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>351204</xdr:rowOff>
+      <xdr:rowOff>317500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>681185</xdr:colOff>
+      <xdr:colOff>736748</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>217715</xdr:rowOff>
+      <xdr:rowOff>184011</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -550,8 +543,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4645207" y="351204"/>
-          <a:ext cx="6998436" cy="5527082"/>
+          <a:off x="4675823" y="317500"/>
+          <a:ext cx="6943238" cy="5541824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -982,32 +975,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AE2EE6-8974-49F4-A52B-9187C92B921E}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
+  <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.40625" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="4.33984375" customWidth="1"/>
+    <col min="1" max="1" width="12.37109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="4.08203125" customWidth="1"/>
+    <col min="15" max="24" width="4.02734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="46.8" x14ac:dyDescent="1.75">
+    <row r="1" spans="1:24" ht="46.9" x14ac:dyDescent="1.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="str">
+      <c r="D1" s="3" t="str">
         <f>_xlfn.CONCAT(B8, " has ", B9, "% market share")</f>
-        <v>Apple has 40% market share</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="1.3">
+        <v>Xiaomi has 15% market share</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="1.05">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1015,387 +1009,689 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="1.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="1.05">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>35</v>
       </c>
-      <c r="D3" s="5" cm="1">
-        <f t="array" ref="D3:M12">_xlfn.SEQUENCE(10, 10)</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="D3" s="2" cm="1">
+        <f t="array" ref="D3:M12">IF(_xlfn.ANCHORARRAY(O3) &lt;= B9, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7" cm="1">
+        <f t="array" ref="O3:X12">_xlfn.SEQUENCE(10, 10)</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="7">
         <v>3</v>
       </c>
-      <c r="G3" s="5">
+      <c r="R3" s="7">
         <v>4</v>
       </c>
-      <c r="H3" s="5">
+      <c r="S3" s="7">
         <v>5</v>
       </c>
-      <c r="I3" s="5">
+      <c r="T3" s="7">
         <v>6</v>
       </c>
-      <c r="J3" s="5">
+      <c r="U3" s="7">
         <v>7</v>
       </c>
-      <c r="K3" s="5">
+      <c r="V3" s="7">
         <v>8</v>
       </c>
-      <c r="L3" s="5">
+      <c r="W3" s="7">
         <v>9</v>
       </c>
-      <c r="M3" s="5">
+      <c r="X3" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="1.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="1.05">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
         <v>11</v>
       </c>
-      <c r="E4" s="5">
+      <c r="P4" s="7">
         <v>12</v>
       </c>
-      <c r="F4" s="5">
+      <c r="Q4" s="7">
         <v>13</v>
       </c>
-      <c r="G4" s="5">
+      <c r="R4" s="7">
         <v>14</v>
       </c>
-      <c r="H4" s="5">
+      <c r="S4" s="7">
         <v>15</v>
       </c>
-      <c r="I4" s="5">
+      <c r="T4" s="7">
         <v>16</v>
       </c>
-      <c r="J4" s="5">
+      <c r="U4" s="7">
         <v>17</v>
       </c>
-      <c r="K4" s="5">
+      <c r="V4" s="7">
         <v>18</v>
       </c>
-      <c r="L4" s="5">
+      <c r="W4" s="7">
         <v>19</v>
       </c>
-      <c r="M4" s="5">
+      <c r="X4" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="1.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="1.05">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
         <v>21</v>
       </c>
-      <c r="E5" s="5">
+      <c r="P5" s="7">
         <v>22</v>
       </c>
-      <c r="F5" s="5">
+      <c r="Q5" s="7">
         <v>23</v>
       </c>
-      <c r="G5" s="5">
+      <c r="R5" s="7">
         <v>24</v>
       </c>
-      <c r="H5" s="5">
+      <c r="S5" s="7">
         <v>25</v>
       </c>
-      <c r="I5" s="5">
+      <c r="T5" s="7">
         <v>26</v>
       </c>
-      <c r="J5" s="5">
+      <c r="U5" s="7">
         <v>27</v>
       </c>
-      <c r="K5" s="5">
+      <c r="V5" s="7">
         <v>28</v>
       </c>
-      <c r="L5" s="5">
+      <c r="W5" s="7">
         <v>29</v>
       </c>
-      <c r="M5" s="5">
+      <c r="X5" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="1.3">
-      <c r="D6" s="5">
+    <row r="6" spans="1:24" x14ac:dyDescent="1.05">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
         <v>31</v>
       </c>
-      <c r="E6" s="5">
+      <c r="P6" s="7">
         <v>32</v>
       </c>
-      <c r="F6" s="5">
+      <c r="Q6" s="7">
         <v>33</v>
       </c>
-      <c r="G6" s="5">
+      <c r="R6" s="7">
         <v>34</v>
       </c>
-      <c r="H6" s="5">
+      <c r="S6" s="7">
         <v>35</v>
       </c>
-      <c r="I6" s="5">
+      <c r="T6" s="7">
         <v>36</v>
       </c>
-      <c r="J6" s="5">
+      <c r="U6" s="7">
         <v>37</v>
       </c>
-      <c r="K6" s="5">
+      <c r="V6" s="7">
         <v>38</v>
       </c>
-      <c r="L6" s="5">
+      <c r="W6" s="7">
         <v>39</v>
       </c>
-      <c r="M6" s="5">
+      <c r="X6" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="1.3">
-      <c r="D7" s="5">
+    <row r="7" spans="1:24" x14ac:dyDescent="1.05">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
         <v>41</v>
       </c>
-      <c r="E7" s="5">
+      <c r="P7" s="7">
         <v>42</v>
       </c>
-      <c r="F7" s="5">
+      <c r="Q7" s="7">
         <v>43</v>
       </c>
-      <c r="G7" s="5">
+      <c r="R7" s="7">
         <v>44</v>
       </c>
-      <c r="H7" s="5">
+      <c r="S7" s="7">
         <v>45</v>
       </c>
-      <c r="I7" s="5">
+      <c r="T7" s="7">
         <v>46</v>
       </c>
-      <c r="J7" s="5">
+      <c r="U7" s="7">
         <v>47</v>
       </c>
-      <c r="K7" s="5">
+      <c r="V7" s="7">
         <v>48</v>
       </c>
-      <c r="L7" s="5">
+      <c r="W7" s="7">
         <v>49</v>
       </c>
-      <c r="M7" s="5">
+      <c r="X7" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="1.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="1.05">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
         <v>51</v>
       </c>
-      <c r="E8" s="5">
+      <c r="P8" s="7">
         <v>52</v>
       </c>
-      <c r="F8" s="5">
+      <c r="Q8" s="7">
         <v>53</v>
       </c>
-      <c r="G8" s="5">
+      <c r="R8" s="7">
         <v>54</v>
       </c>
-      <c r="H8" s="5">
+      <c r="S8" s="7">
         <v>55</v>
       </c>
-      <c r="I8" s="5">
+      <c r="T8" s="7">
         <v>56</v>
       </c>
-      <c r="J8" s="5">
+      <c r="U8" s="7">
         <v>57</v>
       </c>
-      <c r="K8" s="5">
+      <c r="V8" s="7">
         <v>58</v>
       </c>
-      <c r="L8" s="5">
+      <c r="W8" s="7">
         <v>59</v>
       </c>
-      <c r="M8" s="5">
+      <c r="X8" s="7">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="1.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="1.05">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <f>_xlfn.XLOOKUP(B8, market_share[Brand], market_share[Market Share (%)])</f>
-        <v>40</v>
-      </c>
-      <c r="D9" s="5">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
         <v>61</v>
       </c>
-      <c r="E9" s="5">
+      <c r="P9" s="7">
         <v>62</v>
       </c>
-      <c r="F9" s="5">
+      <c r="Q9" s="7">
         <v>63</v>
       </c>
-      <c r="G9" s="5">
+      <c r="R9" s="7">
         <v>64</v>
       </c>
-      <c r="H9" s="5">
+      <c r="S9" s="7">
         <v>65</v>
       </c>
-      <c r="I9" s="5">
+      <c r="T9" s="7">
         <v>66</v>
       </c>
-      <c r="J9" s="5">
+      <c r="U9" s="7">
         <v>67</v>
       </c>
-      <c r="K9" s="5">
+      <c r="V9" s="7">
         <v>68</v>
       </c>
-      <c r="L9" s="5">
+      <c r="W9" s="7">
         <v>69</v>
       </c>
-      <c r="M9" s="5">
+      <c r="X9" s="7">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="1.3">
-      <c r="D10" s="5">
+    <row r="10" spans="1:24" x14ac:dyDescent="1.05">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
         <v>71</v>
       </c>
-      <c r="E10" s="5">
+      <c r="P10" s="7">
         <v>72</v>
       </c>
-      <c r="F10" s="5">
+      <c r="Q10" s="7">
         <v>73</v>
       </c>
-      <c r="G10" s="5">
+      <c r="R10" s="7">
         <v>74</v>
       </c>
-      <c r="H10" s="5">
+      <c r="S10" s="7">
         <v>75</v>
       </c>
-      <c r="I10" s="5">
+      <c r="T10" s="7">
         <v>76</v>
       </c>
-      <c r="J10" s="5">
+      <c r="U10" s="7">
         <v>77</v>
       </c>
-      <c r="K10" s="5">
+      <c r="V10" s="7">
         <v>78</v>
       </c>
-      <c r="L10" s="5">
+      <c r="W10" s="7">
         <v>79</v>
       </c>
-      <c r="M10" s="5">
+      <c r="X10" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="1.3">
-      <c r="D11" s="5">
+    <row r="11" spans="1:24" x14ac:dyDescent="1.05">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
         <v>81</v>
       </c>
-      <c r="E11" s="5">
+      <c r="P11" s="7">
         <v>82</v>
       </c>
-      <c r="F11" s="5">
+      <c r="Q11" s="7">
         <v>83</v>
       </c>
-      <c r="G11" s="5">
+      <c r="R11" s="7">
         <v>84</v>
       </c>
-      <c r="H11" s="5">
+      <c r="S11" s="7">
         <v>85</v>
       </c>
-      <c r="I11" s="5">
+      <c r="T11" s="7">
         <v>86</v>
       </c>
-      <c r="J11" s="5">
+      <c r="U11" s="7">
         <v>87</v>
       </c>
-      <c r="K11" s="5">
+      <c r="V11" s="7">
         <v>88</v>
       </c>
-      <c r="L11" s="5">
+      <c r="W11" s="7">
         <v>89</v>
       </c>
-      <c r="M11" s="5">
+      <c r="X11" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="1.3">
-      <c r="D12" s="5">
+    <row r="12" spans="1:24" x14ac:dyDescent="1.05">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
         <v>91</v>
       </c>
-      <c r="E12" s="5">
+      <c r="P12" s="7">
         <v>92</v>
       </c>
-      <c r="F12" s="5">
+      <c r="Q12" s="7">
         <v>93</v>
       </c>
-      <c r="G12" s="5">
+      <c r="R12" s="7">
         <v>94</v>
       </c>
-      <c r="H12" s="5">
+      <c r="S12" s="7">
         <v>95</v>
       </c>
-      <c r="I12" s="5">
+      <c r="T12" s="7">
         <v>96</v>
       </c>
-      <c r="J12" s="5">
+      <c r="U12" s="7">
         <v>97</v>
       </c>
-      <c r="K12" s="5">
+      <c r="V12" s="7">
         <v>98</v>
       </c>
-      <c r="L12" s="5">
+      <c r="W12" s="7">
         <v>99</v>
       </c>
-      <c r="M12" s="5">
+      <c r="X12" s="7">
         <v>100</v>
       </c>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="1.3">
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="1.3">
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="1.3">
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="1.3">
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="17:17" x14ac:dyDescent="1.3">
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="17:17" x14ac:dyDescent="1.3">
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="17:17" x14ac:dyDescent="1.3">
-      <c r="Q19" s="3"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="1.05">
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="1.05">
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="1.05">
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="1.05">
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="1.05">
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="1.05">
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="17:17" x14ac:dyDescent="1.05">
+      <c r="Q19" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:M12">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
-      <formula>$B$9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
-      <formula>100</formula>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.749992370372631"/>
+        <color theme="3" tint="0.249977111117893"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1414,19 +1710,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9EC7C9-2974-4FB4-83E8-1346EA192415}">
   <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S13" sqref="E1:S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.4296875" defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <cols>
-    <col min="1" max="1" width="7.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25390625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="3.4296875" style="4"/>
+    <col min="5" max="14" width="3.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="46.8" x14ac:dyDescent="1.75">
+    <row r="1" spans="1:31" ht="46.9" x14ac:dyDescent="1.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1436,42 +1732,11 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="4" cm="1">
-        <f t="array" ref="V1:AE10">_xlfn.SEQUENCE(10, 10)</f>
-        <v>1</v>
-      </c>
-      <c r="W1" s="4">
-        <v>2</v>
-      </c>
-      <c r="X1" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z1" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA1" s="4">
-        <v>6</v>
-      </c>
-      <c r="AB1" s="4">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="4">
-        <v>8</v>
-      </c>
-      <c r="AD1" s="4">
-        <v>9</v>
-      </c>
-      <c r="AE1" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="1.3">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="1.05">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1482,38 +1747,8 @@
         <f>SUM(INDEX(market_share4[Market Share (%)], 1):market_share4[[#This Row],[Market Share (%)]])</f>
         <v>40</v>
       </c>
-      <c r="V2" s="4">
-        <v>11</v>
-      </c>
-      <c r="W2" s="4">
-        <v>12</v>
-      </c>
-      <c r="X2" s="4">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>14</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>16</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>17</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>18</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>19</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="1.3">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="1.05">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1524,72 +1759,73 @@
         <f>SUM(INDEX(market_share4[Market Share (%)], 1):market_share4[[#This Row],[Market Share (%)]])</f>
         <v>75</v>
       </c>
-      <c r="E3" s="7" cm="1">
-        <f t="array" ref="E3:N12">_xlfn.IFS(_xlfn.ANCHORARRAY(V1) &lt;= C2, 1,_xlfn.ANCHORARRAY(
-V1) &lt;= C3, 2,_xlfn.ANCHORARRAY(
-V1) &lt;= C4, 3,_xlfn.ANCHORARRAY(
-V1) &lt;= C5, 4)</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7">
-        <v>1</v>
-      </c>
-      <c r="K3" s="7">
-        <v>1</v>
-      </c>
-      <c r="L3" s="7">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7">
-        <v>1</v>
-      </c>
-      <c r="V3" s="4">
-        <v>21</v>
-      </c>
-      <c r="W3" s="4">
-        <v>22</v>
-      </c>
-      <c r="X3" s="4">
-        <v>23</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>25</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>27</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>28</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>29</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="E3" s="4" cm="1">
+        <f t="array" ref="E3:N12">_xlfn.IFS(_xlfn.ANCHORARRAY(R3) &lt;= C2, 1,_xlfn.ANCHORARRAY(
+R3) &lt;= C3, 2,_xlfn.ANCHORARRAY(
+R3) &lt;= C4, 3,_xlfn.ANCHORARRAY(
+R3) &lt;= C5, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" cm="1">
+        <f t="array" ref="R3:AA12">_xlfn.SEQUENCE(10, 10)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1">
+        <v>3</v>
+      </c>
+      <c r="U3" s="1">
+        <v>4</v>
+      </c>
+      <c r="V3" s="1">
+        <v>5</v>
+      </c>
+      <c r="W3" s="1">
+        <v>6</v>
+      </c>
+      <c r="X3" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="1.05">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1600,68 +1836,68 @@
         <f>SUM(INDEX(market_share4[Market Share (%)], 1):market_share4[[#This Row],[Market Share (%)]])</f>
         <v>90</v>
       </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1</v>
-      </c>
-      <c r="V4" s="4">
-        <v>31</v>
-      </c>
-      <c r="W4" s="4">
-        <v>32</v>
-      </c>
-      <c r="X4" s="4">
-        <v>33</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>34</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>35</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>36</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>37</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>38</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>11</v>
+      </c>
+      <c r="S4" s="1">
+        <v>12</v>
+      </c>
+      <c r="T4" s="1">
+        <v>13</v>
+      </c>
+      <c r="U4" s="1">
+        <v>14</v>
+      </c>
+      <c r="V4" s="1">
+        <v>15</v>
+      </c>
+      <c r="W4" s="1">
+        <v>16</v>
+      </c>
+      <c r="X4" s="1">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="1.05">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1672,452 +1908,506 @@
         <f>SUM(INDEX(market_share4[Market Share (%)], 1):market_share4[[#This Row],[Market Share (%)]])</f>
         <v>100</v>
       </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
-      <c r="V5" s="4">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>21</v>
+      </c>
+      <c r="S5" s="1">
+        <v>22</v>
+      </c>
+      <c r="T5" s="1">
+        <v>23</v>
+      </c>
+      <c r="U5" s="1">
+        <v>24</v>
+      </c>
+      <c r="V5" s="1">
+        <v>25</v>
+      </c>
+      <c r="W5" s="1">
+        <v>26</v>
+      </c>
+      <c r="X5" s="1">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>29</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="1.05">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>31</v>
+      </c>
+      <c r="S6" s="1">
+        <v>32</v>
+      </c>
+      <c r="T6" s="1">
+        <v>33</v>
+      </c>
+      <c r="U6" s="1">
+        <v>34</v>
+      </c>
+      <c r="V6" s="1">
+        <v>35</v>
+      </c>
+      <c r="W6" s="1">
+        <v>36</v>
+      </c>
+      <c r="X6" s="1">
+        <v>37</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>38</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>39</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="1.05">
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2</v>
+      </c>
+      <c r="M7" s="4">
+        <v>2</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1">
         <v>41</v>
       </c>
-      <c r="W5" s="4">
+      <c r="S7" s="1">
         <v>42</v>
       </c>
-      <c r="X5" s="4">
+      <c r="T7" s="1">
         <v>43</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="U7" s="1">
         <v>44</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="V7" s="1">
         <v>45</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="W7" s="1">
         <v>46</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="X7" s="1">
         <v>47</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="Y7" s="1">
         <v>48</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="Z7" s="1">
         <v>49</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AA7" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="1.3">
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1</v>
-      </c>
-      <c r="V6" s="4">
+    <row r="8" spans="1:31" x14ac:dyDescent="1.05">
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2</v>
+      </c>
+      <c r="R8" s="1">
         <v>51</v>
       </c>
-      <c r="W6" s="4">
+      <c r="S8" s="1">
         <v>52</v>
       </c>
-      <c r="X6" s="4">
+      <c r="T8" s="1">
         <v>53</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="U8" s="1">
         <v>54</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="V8" s="1">
         <v>55</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="W8" s="1">
         <v>56</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="X8" s="1">
         <v>57</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="Y8" s="1">
         <v>58</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="Z8" s="1">
         <v>59</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AA8" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="1.3">
-      <c r="E7" s="7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7">
-        <v>2</v>
-      </c>
-      <c r="K7" s="7">
-        <v>2</v>
-      </c>
-      <c r="L7" s="7">
-        <v>2</v>
-      </c>
-      <c r="M7" s="7">
-        <v>2</v>
-      </c>
-      <c r="N7" s="7">
-        <v>2</v>
-      </c>
-      <c r="V7" s="4">
+    <row r="9" spans="1:31" x14ac:dyDescent="1.05">
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2</v>
+      </c>
+      <c r="R9" s="1">
         <v>61</v>
       </c>
-      <c r="W7" s="4">
+      <c r="S9" s="1">
         <v>62</v>
       </c>
-      <c r="X7" s="4">
+      <c r="T9" s="1">
         <v>63</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="U9" s="1">
         <v>64</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="V9" s="1">
         <v>65</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="W9" s="1">
         <v>66</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="X9" s="1">
         <v>67</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="Y9" s="1">
         <v>68</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="Z9" s="1">
         <v>69</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AA9" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="1.3">
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2</v>
-      </c>
-      <c r="J8" s="7">
-        <v>2</v>
-      </c>
-      <c r="K8" s="7">
-        <v>2</v>
-      </c>
-      <c r="L8" s="7">
-        <v>2</v>
-      </c>
-      <c r="M8" s="7">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2</v>
-      </c>
-      <c r="V8" s="4">
+    <row r="10" spans="1:31" x14ac:dyDescent="1.05">
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3</v>
+      </c>
+      <c r="M10" s="4">
+        <v>3</v>
+      </c>
+      <c r="N10" s="4">
+        <v>3</v>
+      </c>
+      <c r="R10" s="1">
         <v>71</v>
       </c>
-      <c r="W8" s="4">
+      <c r="S10" s="1">
         <v>72</v>
       </c>
-      <c r="X8" s="4">
+      <c r="T10" s="1">
         <v>73</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="U10" s="1">
         <v>74</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="V10" s="1">
         <v>75</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="W10" s="1">
         <v>76</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="X10" s="1">
         <v>77</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="Y10" s="1">
         <v>78</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="Z10" s="1">
         <v>79</v>
       </c>
-      <c r="AE8" s="4">
+      <c r="AA10" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="1.3">
-      <c r="E9" s="7">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2</v>
-      </c>
-      <c r="J9" s="7">
-        <v>2</v>
-      </c>
-      <c r="K9" s="7">
-        <v>2</v>
-      </c>
-      <c r="L9" s="7">
-        <v>2</v>
-      </c>
-      <c r="M9" s="7">
-        <v>2</v>
-      </c>
-      <c r="N9" s="7">
-        <v>2</v>
-      </c>
-      <c r="V9" s="4">
+    <row r="11" spans="1:31" x14ac:dyDescent="1.05">
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3</v>
+      </c>
+      <c r="M11" s="4">
+        <v>3</v>
+      </c>
+      <c r="N11" s="4">
+        <v>3</v>
+      </c>
+      <c r="R11" s="1">
         <v>81</v>
       </c>
-      <c r="W9" s="4">
+      <c r="S11" s="1">
         <v>82</v>
       </c>
-      <c r="X9" s="4">
+      <c r="T11" s="1">
         <v>83</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="U11" s="1">
         <v>84</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="V11" s="1">
         <v>85</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="W11" s="1">
         <v>86</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="X11" s="1">
         <v>87</v>
       </c>
-      <c r="AC9" s="4">
+      <c r="Y11" s="1">
         <v>88</v>
       </c>
-      <c r="AD9" s="4">
+      <c r="Z11" s="1">
         <v>89</v>
       </c>
-      <c r="AE9" s="4">
+      <c r="AA11" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="1.3">
-      <c r="E10" s="7">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7">
-        <v>2</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2</v>
-      </c>
-      <c r="J10" s="7">
-        <v>3</v>
-      </c>
-      <c r="K10" s="7">
-        <v>3</v>
-      </c>
-      <c r="L10" s="7">
-        <v>3</v>
-      </c>
-      <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3</v>
-      </c>
-      <c r="V10" s="4">
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="1.05">
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4">
+        <v>4</v>
+      </c>
+      <c r="J12" s="4">
+        <v>4</v>
+      </c>
+      <c r="K12" s="4">
+        <v>4</v>
+      </c>
+      <c r="L12" s="4">
+        <v>4</v>
+      </c>
+      <c r="M12" s="4">
+        <v>4</v>
+      </c>
+      <c r="N12" s="4">
+        <v>4</v>
+      </c>
+      <c r="R12" s="1">
         <v>91</v>
       </c>
-      <c r="W10" s="4">
+      <c r="S12" s="1">
         <v>92</v>
       </c>
-      <c r="X10" s="4">
+      <c r="T12" s="1">
         <v>93</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="U12" s="1">
         <v>94</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="V12" s="1">
         <v>95</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="W12" s="1">
         <v>96</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="X12" s="1">
         <v>97</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="Y12" s="1">
         <v>98</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="Z12" s="1">
         <v>99</v>
       </c>
-      <c r="AE10" s="4">
+      <c r="AA12" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="1.3">
-      <c r="E11" s="7">
-        <v>3</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3</v>
-      </c>
-      <c r="G11" s="7">
-        <v>3</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3</v>
-      </c>
-      <c r="J11" s="7">
-        <v>3</v>
-      </c>
-      <c r="K11" s="7">
-        <v>3</v>
-      </c>
-      <c r="L11" s="7">
-        <v>3</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3</v>
-      </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="1.3">
-      <c r="E12" s="7">
-        <v>4</v>
-      </c>
-      <c r="F12" s="7">
-        <v>4</v>
-      </c>
-      <c r="G12" s="7">
-        <v>4</v>
-      </c>
-      <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4</v>
-      </c>
-      <c r="J12" s="7">
-        <v>4</v>
-      </c>
-      <c r="K12" s="7">
-        <v>4</v>
-      </c>
-      <c r="L12" s="7">
-        <v>4</v>
-      </c>
-      <c r="M12" s="7">
-        <v>4</v>
-      </c>
-      <c r="N12" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="1.3"/>
+    <row r="14" spans="1:31" ht="17.45" customHeight="1" x14ac:dyDescent="1.05"/>
   </sheetData>
   <conditionalFormatting sqref="E3:N12">
     <cfRule type="colorScale" priority="1">
@@ -2141,18 +2431,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139BFFE0-2322-4B8E-A252-E24B89CE91AC}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.3828125" defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
+  <sheetFormatPr defaultColWidth="5.37109375" defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <cols>
-    <col min="1" max="1" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.40625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1328125" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="1.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2160,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="1.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2172,7 +2462,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="1.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2180,7 +2470,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="1.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2188,7 +2478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="1.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A5" t="s">
         <v>5</v>
       </c>

--- a/excel-wafflechart-demo.xlsx
+++ b/excel-wafflechart-demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99094450-C733-4F36-A276-16F0651CA7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D918E4F-C4DB-4E6B-BF67-D259B2068F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{82CC8FF4-E806-4747-8052-BD5457E82C36}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{82CC8FF4-E806-4747-8052-BD5457E82C36}"/>
   </bookViews>
   <sheets>
     <sheet name="example-1" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,9 @@
 ax.set_xticks([])
 # Define dynamic label positions based on the number of categories
 y_positions = np.linspace(1, rows - 1, len(df['Brand']))
-# Add percentage labels with dynamically calculated percentages
-for brand, proportion, color, y_pos in zip(df['Brand'], category_proportions, colors, y_positions):
-    percentage_label = f"{proportion * 100:.1f}%%"
+# Add percentage labels with integer counts rather than proportions
+for brand, num_squares, color, y_pos in zip(df['Brand'], num_squares_per_category, colors, y_positions):
+    percentage_label = f"{num_squares}%%"
     ax.text((cols / 2) + 1, y_pos, f"{brand}: {percentage_label}", 
             va='center', ha='left', color=color, fontsize=12, weight='bold', 
             bbox=dict(facecolor='white', edgecolor='none'))
@@ -273,7 +273,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -281,25 +280,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -507,15 +493,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>802323</xdr:colOff>
+      <xdr:colOff>873761</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
+      <xdr:rowOff>432753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>736748</xdr:colOff>
+      <xdr:colOff>808185</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>184011</xdr:rowOff>
+      <xdr:rowOff>294502</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -543,8 +529,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4675823" y="317500"/>
-          <a:ext cx="6943238" cy="5541824"/>
+          <a:off x="4771074" y="432753"/>
+          <a:ext cx="6957206" cy="5541824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -639,7 +625,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2D697679-3732-40BC-8DAE-CE224708E7B7}" name="Brand"/>
     <tableColumn id="2" xr3:uid="{A5F9AEBE-376D-4CC9-A171-BFAEFBB909F5}" name="Market Share (%)"/>
-    <tableColumn id="3" xr3:uid="{37D3FDDB-4531-4CAC-90FF-5B98D1D75CE0}" name="Cumulative total" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{37D3FDDB-4531-4CAC-90FF-5B98D1D75CE0}" name="Cumulative total" dataDxfId="0">
       <calculatedColumnFormula>SUM(INDEX(market_share4[Market Share (%)], 1):market_share4[[#This Row],[Market Share (%)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -978,30 +964,30 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
+  <sheetFormatPr defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
   <cols>
-    <col min="1" max="1" width="12.37109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="4.08203125" customWidth="1"/>
-    <col min="15" max="24" width="4.02734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="4.06640625" style="1" customWidth="1"/>
+    <col min="15" max="24" width="4.01953125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="46.9" x14ac:dyDescent="1.4">
+    <row r="1" spans="1:24" ht="46.8" x14ac:dyDescent="1.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="str">
+      <c r="D1" s="2" t="str">
         <f>_xlfn.CONCAT(B8, " has ", B9, "% market share")</f>
         <v>Xiaomi has 15% market share</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="1.05">
+    <row r="2" spans="1:24" x14ac:dyDescent="1.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1009,405 +995,405 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="1.05">
+    <row r="3" spans="1:24" x14ac:dyDescent="1.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>35</v>
       </c>
-      <c r="D3" s="2" cm="1">
+      <c r="D3" s="9" cm="1">
         <f t="array" ref="D3:M12">IF(_xlfn.ANCHORARRAY(O3) &lt;= B9, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7" cm="1">
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" cm="1">
         <f t="array" ref="O3:X12">_xlfn.SEQUENCE(10, 10)</f>
         <v>1</v>
       </c>
-      <c r="P3" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="7">
+      <c r="P3" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="6">
         <v>3</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="6">
         <v>4</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="6">
         <v>5</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="6">
         <v>6</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="6">
         <v>7</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="6">
         <v>8</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="6">
         <v>9</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="1.05">
+    <row r="4" spans="1:24" x14ac:dyDescent="1.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
         <v>11</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <v>12</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6">
         <v>13</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="6">
         <v>14</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="6">
         <v>15</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="6">
         <v>16</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="6">
         <v>17</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="6">
         <v>18</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="6">
         <v>19</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="1.05">
+    <row r="5" spans="1:24" x14ac:dyDescent="1.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
         <v>21</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>22</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <v>23</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="6">
         <v>24</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="6">
         <v>25</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="6">
         <v>26</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="6">
         <v>27</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="6">
         <v>28</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="6">
         <v>29</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="1.05">
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
+    <row r="6" spans="1:24" x14ac:dyDescent="1.3">
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
         <v>31</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <v>32</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <v>33</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="6">
         <v>34</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <v>35</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="6">
         <v>36</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="6">
         <v>37</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="6">
         <v>38</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="6">
         <v>39</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="1.05">
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
+    <row r="7" spans="1:24" x14ac:dyDescent="1.3">
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
         <v>41</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <v>42</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <v>43</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="6">
         <v>44</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="6">
         <v>45</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="6">
         <v>46</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="6">
         <v>47</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="6">
         <v>48</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="6">
         <v>49</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="1.05">
+    <row r="8" spans="1:24" x14ac:dyDescent="1.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
         <v>51</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>52</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <v>53</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="6">
         <v>54</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="6">
         <v>55</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="6">
         <v>56</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="6">
         <v>57</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="6">
         <v>58</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="6">
         <v>59</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="1.05">
+    <row r="9" spans="1:24" x14ac:dyDescent="1.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1415,273 +1401,273 @@
         <f>_xlfn.XLOOKUP(B8, market_share[Brand], market_share[Market Share (%)])</f>
         <v>15</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
         <v>61</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>62</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="6">
         <v>63</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="6">
         <v>64</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="6">
         <v>65</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="6">
         <v>66</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="6">
         <v>67</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="6">
         <v>68</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="6">
         <v>69</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X9" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="1.05">
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
+    <row r="10" spans="1:24" x14ac:dyDescent="1.3">
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
         <v>71</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <v>72</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <v>73</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="6">
         <v>74</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="6">
         <v>75</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="6">
         <v>76</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="6">
         <v>77</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="6">
         <v>78</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="6">
         <v>79</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="1.05">
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
+    <row r="11" spans="1:24" x14ac:dyDescent="1.3">
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
         <v>81</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>82</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <v>83</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="6">
         <v>84</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="6">
         <v>85</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="6">
         <v>86</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="6">
         <v>87</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="6">
         <v>88</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="6">
         <v>89</v>
       </c>
-      <c r="X11" s="7">
+      <c r="X11" s="6">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="1.05">
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
+    <row r="12" spans="1:24" x14ac:dyDescent="1.3">
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
         <v>91</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="6">
         <v>92</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="6">
         <v>93</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="6">
         <v>94</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="6">
         <v>95</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="6">
         <v>96</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="6">
         <v>97</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="6">
         <v>98</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="6">
         <v>99</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="1.05">
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="1.05">
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="1.05">
-      <c r="Q15" s="8"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="1.05">
-      <c r="Q16" s="8"/>
-    </row>
-    <row r="17" spans="17:17" x14ac:dyDescent="1.05">
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="17:17" x14ac:dyDescent="1.05">
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="17:17" x14ac:dyDescent="1.05">
-      <c r="Q19" s="9"/>
+    <row r="13" spans="1:24" x14ac:dyDescent="1.3">
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="1.3">
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="1.3">
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="1.3">
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="1.3">
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="1.3">
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="17:17" x14ac:dyDescent="1.3">
+      <c r="Q19" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:M12">
@@ -1700,8 +1686,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1714,15 +1701,15 @@
       <selection activeCell="S13" sqref="E1:S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
+  <sheetFormatPr defaultColWidth="3.4296875" defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
   <cols>
-    <col min="1" max="1" width="7.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25390625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="3.42578125" style="1"/>
+    <col min="5" max="14" width="3.4296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="46.9" x14ac:dyDescent="1.4">
+    <row r="1" spans="1:31" ht="46.8" x14ac:dyDescent="1.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1732,11 +1719,11 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="1.05">
+    <row r="2" spans="1:31" x14ac:dyDescent="1.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1748,7 +1735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="1.05">
+    <row r="3" spans="1:31" x14ac:dyDescent="1.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1759,38 +1746,38 @@
         <f>SUM(INDEX(market_share4[Market Share (%)], 1):market_share4[[#This Row],[Market Share (%)]])</f>
         <v>75</v>
       </c>
-      <c r="E3" s="4" cm="1">
+      <c r="E3" s="3" cm="1">
         <f t="array" ref="E3:N12">_xlfn.IFS(_xlfn.ANCHORARRAY(R3) &lt;= C2, 1,_xlfn.ANCHORARRAY(
 R3) &lt;= C3, 2,_xlfn.ANCHORARRAY(
 R3) &lt;= C4, 3,_xlfn.ANCHORARRAY(
 R3) &lt;= C5, 4)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
         <v>1</v>
       </c>
       <c r="R3" s="1" cm="1">
@@ -1825,7 +1812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="1.05">
+    <row r="4" spans="1:31" x14ac:dyDescent="1.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1836,34 +1823,34 @@
         <f>SUM(INDEX(market_share4[Market Share (%)], 1):market_share4[[#This Row],[Market Share (%)]])</f>
         <v>90</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
         <v>1</v>
       </c>
       <c r="R4" s="1">
@@ -1897,7 +1884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="1.05">
+    <row r="5" spans="1:31" x14ac:dyDescent="1.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1908,34 +1895,34 @@
         <f>SUM(INDEX(market_share4[Market Share (%)], 1):market_share4[[#This Row],[Market Share (%)]])</f>
         <v>100</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
         <v>1</v>
       </c>
       <c r="R5" s="1">
@@ -1969,35 +1956,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="1.05">
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
+    <row r="6" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
         <v>1</v>
       </c>
       <c r="R6" s="1">
@@ -2031,35 +2018,35 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="1.05">
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2</v>
-      </c>
-      <c r="J7" s="4">
-        <v>2</v>
-      </c>
-      <c r="K7" s="4">
-        <v>2</v>
-      </c>
-      <c r="L7" s="4">
-        <v>2</v>
-      </c>
-      <c r="M7" s="4">
-        <v>2</v>
-      </c>
-      <c r="N7" s="4">
+    <row r="7" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2</v>
+      </c>
+      <c r="N7" s="3">
         <v>2</v>
       </c>
       <c r="R7" s="1">
@@ -2093,35 +2080,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="1.05">
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2</v>
-      </c>
-      <c r="J8" s="4">
-        <v>2</v>
-      </c>
-      <c r="K8" s="4">
-        <v>2</v>
-      </c>
-      <c r="L8" s="4">
-        <v>2</v>
-      </c>
-      <c r="M8" s="4">
-        <v>2</v>
-      </c>
-      <c r="N8" s="4">
+    <row r="8" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2</v>
+      </c>
+      <c r="N8" s="3">
         <v>2</v>
       </c>
       <c r="R8" s="1">
@@ -2155,35 +2142,35 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="1.05">
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>2</v>
-      </c>
-      <c r="K9" s="4">
-        <v>2</v>
-      </c>
-      <c r="L9" s="4">
-        <v>2</v>
-      </c>
-      <c r="M9" s="4">
-        <v>2</v>
-      </c>
-      <c r="N9" s="4">
+    <row r="9" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3">
         <v>2</v>
       </c>
       <c r="R9" s="1">
@@ -2217,35 +2204,35 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="1.05">
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2</v>
-      </c>
-      <c r="J10" s="4">
+    <row r="10" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3">
         <v>3</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>3</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>3</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>3</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>3</v>
       </c>
       <c r="R10" s="1">
@@ -2279,35 +2266,35 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="1.05">
-      <c r="E11" s="4">
+    <row r="11" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="E11" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>3</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>3</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>3</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>3</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>3</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>3</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>3</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>3</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>3</v>
       </c>
       <c r="R11" s="1">
@@ -2345,35 +2332,35 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="1.05">
-      <c r="E12" s="4">
+    <row r="12" spans="1:31" x14ac:dyDescent="1.3">
+      <c r="E12" s="3">
         <v>4</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>4</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>4</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>4</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>4</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>4</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>4</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>4</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>4</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>4</v>
       </c>
       <c r="R12" s="1">
@@ -2407,7 +2394,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="17.45" customHeight="1" x14ac:dyDescent="1.05"/>
+    <row r="14" spans="1:31" ht="17.5" customHeight="1" x14ac:dyDescent="1.3"/>
   </sheetData>
   <conditionalFormatting sqref="E3:N12">
     <cfRule type="colorScale" priority="1">
@@ -2432,17 +2419,17 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.37109375" defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
+  <sheetFormatPr defaultColWidth="5.36328125" defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="1.05">
+    <row r="1" spans="1:4" x14ac:dyDescent="1.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2450,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="1.05">
+    <row r="2" spans="1:4" x14ac:dyDescent="1.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2462,7 +2449,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="1.05">
+    <row r="3" spans="1:4" x14ac:dyDescent="1.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2470,7 +2457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="1.05">
+    <row r="4" spans="1:4" x14ac:dyDescent="1.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2478,7 +2465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="1.05">
+    <row r="5" spans="1:4" x14ac:dyDescent="1.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
